--- a/src/main/java/BUS/Excel/sp.xlsx
+++ b/src/main/java/BUS/Excel/sp.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="214">
   <si>
     <t>Fanta Cam</t>
   </si>
@@ -562,6 +562,111 @@
   </si>
   <si>
     <t>Con meo bong duoc lam bang vai om rat thich</t>
+  </si>
+  <si>
+    <t>Từ thương hiệu nước ngọt có gas nổi tiếng toàn cầu...</t>
+  </si>
+  <si>
+    <t>Hương vị được ưa chuộng tại hơn 190 quốc gia...</t>
+  </si>
+  <si>
+    <t>Là loại nước ngọt được nhiều người yêu thích...</t>
+  </si>
+  <si>
+    <t>Là sản phẩm nước ngọt có gas của thương hiệu Fanta...</t>
+  </si>
+  <si>
+    <t>Từ thương hiệu nước giải khát 7Up uy tín...</t>
+  </si>
+  <si>
+    <t>Là sản phẩm truyền thống đặc trưng của Chương Dương...</t>
+  </si>
+  <si>
+    <t>Sản xuất theo dây chuyền công nghệ hiện đại...</t>
+  </si>
+  <si>
+    <t>Sản phẩm nước uống đóng chai từ thương hiệu Vivant...</t>
+  </si>
+  <si>
+    <t>Được lấy từ nguồn nước ngầm đảm bảo...</t>
+  </si>
+  <si>
+    <t>Với thành phần tự nhiên, mùi vị thơm ngon...</t>
+  </si>
+  <si>
+    <t>Bia Carlsberg</t>
+  </si>
+  <si>
+    <t>Lên men tự nhiên từ nước, đại mạch, ngũ cốc...</t>
+  </si>
+  <si>
+    <t>carlsberg</t>
+  </si>
+  <si>
+    <t>Kẹo Xylitol</t>
+  </si>
+  <si>
+    <t>Kẹo gum không đường giúp loại bỏ thức ăn thừa...</t>
+  </si>
+  <si>
+    <t>Kẹo Trident Bạc Hà</t>
+  </si>
+  <si>
+    <t>Kẹo gum hương bạc hà mang đến hơi thở thơm mát...</t>
+  </si>
+  <si>
+    <t>Kẹo Trident Chanh</t>
+  </si>
+  <si>
+    <t>Kẹo gum hương bạc hà chanh...</t>
+  </si>
+  <si>
+    <t>Kẹo Alpenliebe</t>
+  </si>
+  <si>
+    <t>Với hương vị ngọt ngào của sữa và hương caramen...</t>
+  </si>
+  <si>
+    <t>Kẹo Alpenliebe mix 2 vị</t>
+  </si>
+  <si>
+    <t>Hương vị trái cây thơm ngon...</t>
+  </si>
+  <si>
+    <t>Kẹo Chupa Chups</t>
+  </si>
+  <si>
+    <t>Kẹo dẻo Chupa Chups với những hình dáng ngộ nghĩnh...</t>
+  </si>
+  <si>
+    <t>Là bánh que chất lượng...</t>
+  </si>
+  <si>
+    <t>Bánh gấu thơm ngon với lớp vỏ ngoài giòn...</t>
+  </si>
+  <si>
+    <t>Bánh gạo giòn giòn thơm ngon...</t>
+  </si>
+  <si>
+    <t>Bánh socola với lớp socola béo...</t>
+  </si>
+  <si>
+    <t>Bánh bông lan thơm mềm, xôm xốp...</t>
+  </si>
+  <si>
+    <t>Bánh quy thơm vị tôm nướng...</t>
+  </si>
+  <si>
+    <t>Bánh xốp phủ socola ngọt, thơm...</t>
+  </si>
+  <si>
+    <t>Bánh mì ốp la là món ăn quen thuộc...</t>
+  </si>
+  <si>
+    <t>Mì Trộn thoạt nhìn có vẻ đơn giản nhưng...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bàn chai đánh răng Colgate 360 Charcoal Spiral </t>
   </si>
 </sst>
 </file>
@@ -888,7 +993,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="11.21875" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="11.21875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -899,10 +1004,10 @@
         <v>160</v>
       </c>
       <c r="C1" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="D1" t="n">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
       <c r="E1" t="s">
         <v>162</v>
@@ -925,10 +1030,10 @@
         <v>159</v>
       </c>
       <c r="C2" t="s">
-        <v>105</v>
+        <v>180</v>
       </c>
       <c r="D2" t="n">
-        <v>50.0</v>
+        <v>48.0</v>
       </c>
       <c r="E2" t="s">
         <v>106</v>
@@ -951,10 +1056,10 @@
         <v>107</v>
       </c>
       <c r="C3" t="s">
-        <v>108</v>
+        <v>181</v>
       </c>
       <c r="D3" t="n">
-        <v>100.0</v>
+        <v>98.0</v>
       </c>
       <c r="E3" t="s">
         <v>109</v>
@@ -977,10 +1082,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>110</v>
+        <v>182</v>
       </c>
       <c r="D4" t="n">
-        <v>20.0</v>
+        <v>18.0</v>
       </c>
       <c r="E4" t="s">
         <v>0</v>
@@ -1003,10 +1108,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>111</v>
+        <v>182</v>
       </c>
       <c r="D5" t="n">
-        <v>30.0</v>
+        <v>17.0</v>
       </c>
       <c r="E5" t="s">
         <v>2</v>
@@ -1029,10 +1134,10 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>112</v>
+        <v>183</v>
       </c>
       <c r="D6" t="n">
-        <v>15.0</v>
+        <v>9.0</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
@@ -1055,10 +1160,10 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>113</v>
+        <v>184</v>
       </c>
       <c r="D7" t="n">
-        <v>22.0</v>
+        <v>20.0</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
@@ -1081,10 +1186,10 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>114</v>
+        <v>185</v>
       </c>
       <c r="D8" t="n">
-        <v>27.0</v>
+        <v>8.0</v>
       </c>
       <c r="E8" t="s">
         <v>7</v>
@@ -1107,10 +1212,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>115</v>
+        <v>186</v>
       </c>
       <c r="D9" t="n">
-        <v>150.0</v>
+        <v>142.0</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
@@ -1133,10 +1238,10 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>116</v>
+        <v>187</v>
       </c>
       <c r="D10" t="n">
-        <v>200.0</v>
+        <v>199.0</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -1159,10 +1264,10 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>117</v>
+        <v>188</v>
       </c>
       <c r="D11" t="n">
-        <v>19.0</v>
+        <v>10.0</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
@@ -1182,16 +1287,16 @@
         <v>12.0</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>189</v>
       </c>
       <c r="C12" t="s">
-        <v>118</v>
+        <v>190</v>
       </c>
       <c r="D12" t="n">
         <v>300.0</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>191</v>
       </c>
       <c r="F12" t="n">
         <v>24000.0</v>
@@ -1208,10 +1313,10 @@
         <v>13.0</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>192</v>
       </c>
       <c r="C13" t="s">
-        <v>119</v>
+        <v>193</v>
       </c>
       <c r="D13" t="n">
         <v>35.0</v>
@@ -1234,10 +1339,10 @@
         <v>14.0</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>194</v>
       </c>
       <c r="C14" t="s">
-        <v>120</v>
+        <v>195</v>
       </c>
       <c r="D14" t="n">
         <v>73.0</v>
@@ -1260,10 +1365,10 @@
         <v>15.0</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>196</v>
       </c>
       <c r="C15" t="s">
-        <v>121</v>
+        <v>197</v>
       </c>
       <c r="D15" t="n">
         <v>63.0</v>
@@ -1286,10 +1391,10 @@
         <v>16.0</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>198</v>
       </c>
       <c r="C16" t="s">
-        <v>122</v>
+        <v>199</v>
       </c>
       <c r="D16" t="n">
         <v>45.0</v>
@@ -1312,10 +1417,10 @@
         <v>17.0</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>200</v>
       </c>
       <c r="C17" t="s">
-        <v>123</v>
+        <v>201</v>
       </c>
       <c r="D17" t="n">
         <v>40.0</v>
@@ -1338,10 +1443,10 @@
         <v>18.0</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>202</v>
       </c>
       <c r="C18" t="s">
-        <v>124</v>
+        <v>203</v>
       </c>
       <c r="D18" t="n">
         <v>40.0</v>
@@ -1367,7 +1472,7 @@
         <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>125</v>
+        <v>204</v>
       </c>
       <c r="D19" t="n">
         <v>30.0</v>
@@ -1393,7 +1498,7 @@
         <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>126</v>
+        <v>205</v>
       </c>
       <c r="D20" t="n">
         <v>100.0</v>
@@ -1419,7 +1524,7 @@
         <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>127</v>
+        <v>206</v>
       </c>
       <c r="D21" t="n">
         <v>150.0</v>
@@ -1445,7 +1550,7 @@
         <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>128</v>
+        <v>207</v>
       </c>
       <c r="D22" t="n">
         <v>150.0</v>
@@ -1471,7 +1576,7 @@
         <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>129</v>
+        <v>208</v>
       </c>
       <c r="D23" t="n">
         <v>50.0</v>
@@ -1497,7 +1602,7 @@
         <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>130</v>
+        <v>209</v>
       </c>
       <c r="D24" t="n">
         <v>50.0</v>
@@ -1523,7 +1628,7 @@
         <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>131</v>
+        <v>210</v>
       </c>
       <c r="D25" t="n">
         <v>50.0</v>
@@ -1549,7 +1654,7 @@
         <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>132</v>
+        <v>211</v>
       </c>
       <c r="D26" t="n">
         <v>99.0</v>
@@ -1575,7 +1680,7 @@
         <v>42</v>
       </c>
       <c r="C27" t="s">
-        <v>133</v>
+        <v>212</v>
       </c>
       <c r="D27" t="n">
         <v>99.0</v>
@@ -1584,7 +1689,7 @@
         <v>43</v>
       </c>
       <c r="F27" t="n">
-        <v>9000.0</v>
+        <v>15000.0</v>
       </c>
       <c r="G27" t="n">
         <v>3.0</v>
@@ -2378,7 +2483,7 @@
         <v>58.0</v>
       </c>
       <c r="B58" t="s">
-        <v>171</v>
+        <v>213</v>
       </c>
       <c r="C58" t="s">
         <v>172</v>
